--- a/uploads/terms.xlsx
+++ b/uploads/terms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\u01\workspace\No.1-SQL-Assist\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8645595-83E0-4785-A4DD-FEDACD0537C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5C2577-2112-4455-AACE-81EC15101D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39960" yWindow="1560" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="terms" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DESCRIPTION</t>
+    <t>DEFINITION</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
